--- a/testFile/case/ordersCase.xlsx
+++ b/testFile/case/ordersCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="9930" firstSheet="9" activeTab="14"/>
+    <workbookView windowWidth="21495" windowHeight="9930" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <sheet name="getAddressList" sheetId="12" r:id="rId12"/>
     <sheet name="getAddress" sheetId="13" r:id="rId13"/>
     <sheet name="deleteAddress" sheetId="14" r:id="rId14"/>
-    <sheet name="editAddress" sheetId="15" r:id="rId15"/>
+    <sheet name="editOrderAddress" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432">
   <si>
     <t>case_name</t>
   </si>
@@ -606,6 +606,9 @@
     <t>sfdfgfj</t>
   </si>
   <si>
+    <t>88888</t>
+  </si>
+  <si>
     <t>55555</t>
   </si>
   <si>
@@ -813,9 +816,6 @@
     <t>法国正常添加地址</t>
   </si>
   <si>
-    <t>88888</t>
-  </si>
-  <si>
     <t>西班牙fname小于2字符</t>
   </si>
   <si>
@@ -1275,7 +1275,10 @@
     <t>4585755</t>
   </si>
   <si>
-    <t>2171</t>
+    <t>billno</t>
+  </si>
+  <si>
+    <t>RWXXX32521</t>
   </si>
   <si>
     <t>法国正常编辑地址</t>
@@ -1294,6 +1297,33 @@
   </si>
   <si>
     <t>墨西哥正常编辑地址</t>
+  </si>
+  <si>
+    <t>巴西税号低于11字符</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>12347</t>
+  </si>
+  <si>
+    <t>BZ tax number is invalid</t>
+  </si>
+  <si>
+    <t>400362</t>
+  </si>
+  <si>
+    <t>巴西税号大于18字符</t>
+  </si>
+  <si>
+    <t>a123456789asdfghjklop</t>
+  </si>
+  <si>
+    <t>巴西税号正常编辑</t>
+  </si>
+  <si>
+    <t>b12368qwertyu</t>
   </si>
 </sst>
 </file>
@@ -1301,10 +1331,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1356,17 +1386,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1378,22 +1407,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1406,16 +1420,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1431,7 +1444,54 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1445,41 +1505,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1506,13 +1536,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1524,13 +1566,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1542,13 +1650,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,133 +1710,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,32 +1748,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1763,11 +1769,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1804,6 +1816,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1820,10 +1850,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1832,16 +1862,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1850,115 +1880,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2006,9 +2036,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2675,8 +2702,8 @@
   <sheetPr/>
   <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2772,8 +2799,8 @@
       <c r="F2" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="1">
-        <v>88888</v>
+      <c r="G2" s="14" t="s">
+        <v>192</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>177</v>
@@ -2788,27 +2815,27 @@
         <v>180</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="16.5" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>190</v>
@@ -2819,8 +2846,8 @@
       <c r="F3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G3" s="1">
-        <v>88888</v>
+      <c r="G3" s="14" t="s">
+        <v>192</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>177</v>
@@ -2835,30 +2862,30 @@
         <v>180</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="16.5" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>173</v>
@@ -2882,30 +2909,30 @@
         <v>180</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="U4" s="14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16.5" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>173</v>
@@ -2929,27 +2956,27 @@
         <v>180</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="16.5" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>190</v>
@@ -2970,33 +2997,33 @@
         <v>178</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>180</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.5" spans="1:21">
       <c r="A7" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>190</v>
@@ -3017,33 +3044,33 @@
         <v>178</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>180</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>190</v>
@@ -3070,27 +3097,27 @@
         <v>180</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="U8" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:21">
       <c r="A9" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>190</v>
@@ -3105,7 +3132,7 @@
         <v>88888</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>178</v>
@@ -3117,27 +3144,27 @@
         <v>180</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U9" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:21">
       <c r="A10" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>190</v>
@@ -3152,7 +3179,7 @@
         <v>88888</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>178</v>
@@ -3164,27 +3191,27 @@
         <v>180</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U10" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="16.5" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>190</v>
@@ -3199,7 +3226,7 @@
         <v>88888</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>178</v>
@@ -3211,27 +3238,27 @@
         <v>180</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U11" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="16.5" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>190</v>
@@ -3258,27 +3285,27 @@
         <v>180</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U12" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>190</v>
@@ -3296,7 +3323,7 @@
         <v>177</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>179</v>
@@ -3305,27 +3332,27 @@
         <v>180</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U13" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="16.5" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>190</v>
@@ -3352,27 +3379,27 @@
         <v>180</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="U14" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="16.5" spans="1:21">
       <c r="A15" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>190</v>
@@ -3387,10 +3414,10 @@
         <v>88888</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>179</v>
@@ -3399,27 +3426,27 @@
         <v>180</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="U15" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="16.5" spans="1:21">
       <c r="A16" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>190</v>
@@ -3437,7 +3464,7 @@
         <v>177</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>179</v>
@@ -3446,27 +3473,27 @@
         <v>180</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U16" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="16.5" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>190</v>
@@ -3478,7 +3505,7 @@
         <v>191</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>177</v>
@@ -3493,27 +3520,27 @@
         <v>180</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U17" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="16.5" spans="1:21">
       <c r="A18" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>190</v>
@@ -3537,27 +3564,27 @@
         <v>179</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="U18" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="16.5" spans="1:21">
       <c r="A19" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>190</v>
@@ -3584,27 +3611,27 @@
         <v>180</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="U19" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="16.5" spans="1:21">
       <c r="A20" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>190</v>
@@ -3616,7 +3643,7 @@
         <v>191</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>177</v>
@@ -3631,10 +3658,10 @@
         <v>180</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>13</v>
@@ -3678,16 +3705,16 @@
         <v>180</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N21" s="14" t="s">
         <v>263</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U21" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -3698,7 +3725,7 @@
         <v>188</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>190</v>
@@ -3725,16 +3752,16 @@
         <v>180</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>263</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U22" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -3745,10 +3772,10 @@
         <v>188</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>173</v>
@@ -3772,16 +3799,16 @@
         <v>180</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>263</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="U23" s="14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -3792,10 +3819,10 @@
         <v>188</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>173</v>
@@ -3819,16 +3846,16 @@
         <v>180</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>263</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U24" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -3839,7 +3866,7 @@
         <v>188</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>190</v>
@@ -3860,22 +3887,22 @@
         <v>178</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>180</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>263</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U25" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -3886,7 +3913,7 @@
         <v>188</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>190</v>
@@ -3907,22 +3934,22 @@
         <v>178</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>180</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N26" s="14" t="s">
         <v>263</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="U26" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -3933,7 +3960,7 @@
         <v>188</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>190</v>
@@ -3960,16 +3987,16 @@
         <v>180</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N27" s="14" t="s">
         <v>263</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="U27" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -3980,7 +4007,7 @@
         <v>188</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>190</v>
@@ -3995,7 +4022,7 @@
         <v>88888</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>178</v>
@@ -4007,16 +4034,16 @@
         <v>180</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N28" s="14" t="s">
         <v>263</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U28" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -4027,7 +4054,7 @@
         <v>188</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>190</v>
@@ -4042,7 +4069,7 @@
         <v>88888</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>178</v>
@@ -4054,7 +4081,7 @@
         <v>180</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N29" s="14" t="s">
         <v>263</v>
@@ -4074,7 +4101,7 @@
         <v>188</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>190</v>
@@ -4089,7 +4116,7 @@
         <v>88888</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>178</v>
@@ -4101,16 +4128,16 @@
         <v>180</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N30" s="14" t="s">
         <v>263</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U30" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -4121,7 +4148,7 @@
         <v>188</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>190</v>
@@ -4148,16 +4175,16 @@
         <v>180</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N31" s="14" t="s">
         <v>263</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U31" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -4168,7 +4195,7 @@
         <v>188</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>190</v>
@@ -4186,7 +4213,7 @@
         <v>177</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>179</v>
@@ -4195,16 +4222,16 @@
         <v>180</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N32" s="14" t="s">
         <v>263</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U32" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -4215,7 +4242,7 @@
         <v>188</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>190</v>
@@ -4242,16 +4269,16 @@
         <v>180</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N33" s="14" t="s">
         <v>263</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="U33" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -4262,7 +4289,7 @@
         <v>188</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>190</v>
@@ -4280,7 +4307,7 @@
         <v>177</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>179</v>
@@ -4289,7 +4316,7 @@
         <v>180</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N34" s="14" t="s">
         <v>263</v>
@@ -4309,7 +4336,7 @@
         <v>188</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>190</v>
@@ -4336,16 +4363,16 @@
         <v>180</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N35" s="14" t="s">
         <v>263</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U35" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -4356,7 +4383,7 @@
         <v>188</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>190</v>
@@ -4368,7 +4395,7 @@
         <v>191</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>177</v>
@@ -4383,16 +4410,16 @@
         <v>180</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N36" s="14" t="s">
         <v>263</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U36" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -4403,7 +4430,7 @@
         <v>188</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>190</v>
@@ -4430,16 +4457,16 @@
         <v>180</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N37" s="14" t="s">
         <v>263</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U37" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -4450,7 +4477,7 @@
         <v>188</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>190</v>
@@ -4477,16 +4504,16 @@
         <v>180</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N38" s="14" t="s">
         <v>263</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="U38" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -4497,7 +4524,7 @@
         <v>188</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>190</v>
@@ -4509,7 +4536,7 @@
         <v>191</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>177</v>
@@ -4524,7 +4551,7 @@
         <v>180</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N39" s="14" t="s">
         <v>263</v>
@@ -4577,10 +4604,10 @@
         <v>290</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U40" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -4591,7 +4618,7 @@
         <v>188</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>190</v>
@@ -4624,10 +4651,10 @@
         <v>290</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U41" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -4685,10 +4712,10 @@
         <v>188</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>173</v>
@@ -4718,10 +4745,10 @@
         <v>290</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="U43" s="14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -4732,10 +4759,10 @@
         <v>188</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>173</v>
@@ -4765,10 +4792,10 @@
         <v>290</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U44" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -4779,7 +4806,7 @@
         <v>188</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>299</v>
@@ -4826,7 +4853,7 @@
         <v>188</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>190</v>
@@ -4847,7 +4874,7 @@
         <v>178</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>180</v>
@@ -4859,10 +4886,10 @@
         <v>290</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U46" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -4873,7 +4900,7 @@
         <v>188</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>190</v>
@@ -4894,7 +4921,7 @@
         <v>178</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>180</v>
@@ -4906,10 +4933,10 @@
         <v>290</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="U47" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -4920,7 +4947,7 @@
         <v>188</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>190</v>
@@ -4953,10 +4980,10 @@
         <v>290</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="U48" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -4967,7 +4994,7 @@
         <v>188</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>190</v>
@@ -4982,7 +5009,7 @@
         <v>88888</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>178</v>
@@ -5000,10 +5027,10 @@
         <v>290</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U49" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -5014,7 +5041,7 @@
         <v>188</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>190</v>
@@ -5029,7 +5056,7 @@
         <v>88888</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>178</v>
@@ -5061,7 +5088,7 @@
         <v>188</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>190</v>
@@ -5108,7 +5135,7 @@
         <v>188</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>190</v>
@@ -5141,10 +5168,10 @@
         <v>290</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U52" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -5155,7 +5182,7 @@
         <v>188</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>190</v>
@@ -5202,7 +5229,7 @@
         <v>188</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>190</v>
@@ -5235,10 +5262,10 @@
         <v>290</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="U54" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -5249,7 +5276,7 @@
         <v>188</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>190</v>
@@ -5267,7 +5294,7 @@
         <v>177</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>179</v>
@@ -5296,7 +5323,7 @@
         <v>188</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>190</v>
@@ -5329,10 +5356,10 @@
         <v>290</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U56" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -5343,7 +5370,7 @@
         <v>188</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>190</v>
@@ -5355,7 +5382,7 @@
         <v>191</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>177</v>
@@ -5376,10 +5403,10 @@
         <v>290</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U57" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -5390,7 +5417,7 @@
         <v>188</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>190</v>
@@ -5423,10 +5450,10 @@
         <v>290</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U58" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -5437,7 +5464,7 @@
         <v>188</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>190</v>
@@ -5449,7 +5476,7 @@
         <v>191</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>177</v>
@@ -5470,10 +5497,10 @@
         <v>290</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="U59" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -5484,7 +5511,7 @@
         <v>188</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>190</v>
@@ -5496,7 +5523,7 @@
         <v>191</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>177</v>
@@ -5564,10 +5591,10 @@
         <v>331</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U61" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -5578,7 +5605,7 @@
         <v>188</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>190</v>
@@ -5611,10 +5638,10 @@
         <v>331</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U62" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -5625,10 +5652,10 @@
         <v>188</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>173</v>
@@ -5658,10 +5685,10 @@
         <v>331</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="U63" s="14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -5672,10 +5699,10 @@
         <v>188</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>173</v>
@@ -5705,10 +5732,10 @@
         <v>331</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U64" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -5719,7 +5746,7 @@
         <v>188</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>190</v>
@@ -5740,7 +5767,7 @@
         <v>178</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>180</v>
@@ -5752,10 +5779,10 @@
         <v>331</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U65" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -5766,7 +5793,7 @@
         <v>188</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>190</v>
@@ -5787,7 +5814,7 @@
         <v>178</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>180</v>
@@ -5799,10 +5826,10 @@
         <v>331</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="U66" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -5813,7 +5840,7 @@
         <v>188</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>190</v>
@@ -5846,10 +5873,10 @@
         <v>331</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="U67" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -5860,7 +5887,7 @@
         <v>188</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>190</v>
@@ -5875,7 +5902,7 @@
         <v>88888</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>178</v>
@@ -5893,10 +5920,10 @@
         <v>331</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U68" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -5907,7 +5934,7 @@
         <v>188</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>190</v>
@@ -5922,7 +5949,7 @@
         <v>88888</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>178</v>
@@ -5954,7 +5981,7 @@
         <v>188</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>190</v>
@@ -5969,7 +5996,7 @@
         <v>88888</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>178</v>
@@ -5987,10 +6014,10 @@
         <v>331</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U70" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -6001,7 +6028,7 @@
         <v>188</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>190</v>
@@ -6034,10 +6061,10 @@
         <v>331</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U71" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -6048,7 +6075,7 @@
         <v>188</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>190</v>
@@ -6066,7 +6093,7 @@
         <v>177</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>179</v>
@@ -6081,10 +6108,10 @@
         <v>331</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U72" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -6095,7 +6122,7 @@
         <v>188</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>190</v>
@@ -6128,10 +6155,10 @@
         <v>331</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="U73" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -6142,7 +6169,7 @@
         <v>188</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>190</v>
@@ -6160,7 +6187,7 @@
         <v>177</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>179</v>
@@ -6189,7 +6216,7 @@
         <v>188</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>190</v>
@@ -6222,10 +6249,10 @@
         <v>331</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U75" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -6236,7 +6263,7 @@
         <v>188</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>190</v>
@@ -6248,7 +6275,7 @@
         <v>191</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>177</v>
@@ -6269,10 +6296,10 @@
         <v>331</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U76" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -6283,7 +6310,7 @@
         <v>188</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>190</v>
@@ -6316,10 +6343,10 @@
         <v>331</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="U77" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -6330,7 +6357,7 @@
         <v>188</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>190</v>
@@ -6360,10 +6387,10 @@
         <v>331</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="U78" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -6374,7 +6401,7 @@
         <v>188</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>190</v>
@@ -6386,7 +6413,7 @@
         <v>191</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>177</v>
@@ -6454,10 +6481,10 @@
         <v>354</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U80" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -6468,7 +6495,7 @@
         <v>188</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>190</v>
@@ -6501,10 +6528,10 @@
         <v>354</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U81" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -6515,7 +6542,7 @@
         <v>188</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>190</v>
@@ -6536,7 +6563,7 @@
         <v>178</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>180</v>
@@ -6548,10 +6575,10 @@
         <v>354</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U82" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -6562,7 +6589,7 @@
         <v>188</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>190</v>
@@ -6583,7 +6610,7 @@
         <v>178</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>180</v>
@@ -6595,10 +6622,10 @@
         <v>354</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U83" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -6609,7 +6636,7 @@
         <v>188</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>190</v>
@@ -6642,10 +6669,10 @@
         <v>354</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="U84" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -6656,7 +6683,7 @@
         <v>188</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>190</v>
@@ -6671,7 +6698,7 @@
         <v>88888</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>178</v>
@@ -6689,10 +6716,10 @@
         <v>354</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U85" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -6703,7 +6730,7 @@
         <v>188</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>190</v>
@@ -6718,7 +6745,7 @@
         <v>88888</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>178</v>
@@ -6736,10 +6763,10 @@
         <v>354</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U86" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -6750,7 +6777,7 @@
         <v>188</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>190</v>
@@ -6783,10 +6810,10 @@
         <v>354</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U87" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -6797,7 +6824,7 @@
         <v>188</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>190</v>
@@ -6830,10 +6857,10 @@
         <v>354</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="U88" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -6844,7 +6871,7 @@
         <v>188</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>190</v>
@@ -6862,7 +6889,7 @@
         <v>177</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>179</v>
@@ -6891,7 +6918,7 @@
         <v>188</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>190</v>
@@ -6924,10 +6951,10 @@
         <v>354</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U90" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -6938,7 +6965,7 @@
         <v>188</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>190</v>
@@ -6950,7 +6977,7 @@
         <v>191</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>177</v>
@@ -6971,10 +6998,10 @@
         <v>354</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U91" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -6985,7 +7012,7 @@
         <v>188</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>190</v>
@@ -7018,10 +7045,10 @@
         <v>354</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U92" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -7032,7 +7059,7 @@
         <v>188</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>190</v>
@@ -7065,10 +7092,10 @@
         <v>354</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="U93" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -7079,7 +7106,7 @@
         <v>188</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>190</v>
@@ -7091,7 +7118,7 @@
         <v>191</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>177</v>
@@ -7153,16 +7180,16 @@
         <v>180</v>
       </c>
       <c r="M95" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N95" s="14" t="s">
         <v>371</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U95" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -7173,7 +7200,7 @@
         <v>188</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>190</v>
@@ -7200,16 +7227,16 @@
         <v>180</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N96" s="14" t="s">
         <v>371</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U96" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -7220,7 +7247,7 @@
         <v>188</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>190</v>
@@ -7241,22 +7268,22 @@
         <v>178</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>180</v>
       </c>
       <c r="M97" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N97" s="14" t="s">
         <v>371</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U97" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -7267,7 +7294,7 @@
         <v>188</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>190</v>
@@ -7288,22 +7315,22 @@
         <v>178</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>180</v>
       </c>
       <c r="M98" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N98" s="14" t="s">
         <v>371</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U98" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -7314,7 +7341,7 @@
         <v>188</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>190</v>
@@ -7341,16 +7368,16 @@
         <v>180</v>
       </c>
       <c r="M99" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N99" s="14" t="s">
         <v>371</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="U99" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -7361,7 +7388,7 @@
         <v>188</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>190</v>
@@ -7376,7 +7403,7 @@
         <v>88888</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>178</v>
@@ -7388,16 +7415,16 @@
         <v>180</v>
       </c>
       <c r="M100" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N100" s="14" t="s">
         <v>371</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U100" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -7408,7 +7435,7 @@
         <v>188</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>190</v>
@@ -7423,7 +7450,7 @@
         <v>88888</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>178</v>
@@ -7435,16 +7462,16 @@
         <v>180</v>
       </c>
       <c r="M101" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N101" s="14" t="s">
         <v>371</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U101" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -7455,7 +7482,7 @@
         <v>188</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>190</v>
@@ -7482,16 +7509,16 @@
         <v>180</v>
       </c>
       <c r="M102" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N102" s="14" t="s">
         <v>371</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U102" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -7502,7 +7529,7 @@
         <v>188</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>190</v>
@@ -7529,16 +7556,16 @@
         <v>180</v>
       </c>
       <c r="M103" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N103" s="14" t="s">
         <v>371</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="U103" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -7549,7 +7576,7 @@
         <v>188</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>190</v>
@@ -7567,7 +7594,7 @@
         <v>177</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K104" s="1" t="s">
         <v>179</v>
@@ -7576,7 +7603,7 @@
         <v>180</v>
       </c>
       <c r="M104" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N104" s="14" t="s">
         <v>371</v>
@@ -7596,7 +7623,7 @@
         <v>188</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>190</v>
@@ -7623,16 +7650,16 @@
         <v>180</v>
       </c>
       <c r="M105" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N105" s="14" t="s">
         <v>371</v>
       </c>
       <c r="T105" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U105" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -7643,7 +7670,7 @@
         <v>188</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>190</v>
@@ -7655,7 +7682,7 @@
         <v>191</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>177</v>
@@ -7670,16 +7697,16 @@
         <v>180</v>
       </c>
       <c r="M106" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N106" s="14" t="s">
         <v>371</v>
       </c>
       <c r="T106" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U106" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -7690,7 +7717,7 @@
         <v>188</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>190</v>
@@ -7717,16 +7744,16 @@
         <v>180</v>
       </c>
       <c r="M107" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N107" s="14" t="s">
         <v>371</v>
       </c>
       <c r="T107" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U107" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -7737,7 +7764,7 @@
         <v>188</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>190</v>
@@ -7784,7 +7811,7 @@
         <v>188</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>190</v>
@@ -7817,10 +7844,10 @@
         <v>371</v>
       </c>
       <c r="T109" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="U109" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -7831,7 +7858,7 @@
         <v>188</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>190</v>
@@ -7855,16 +7882,16 @@
         <v>179</v>
       </c>
       <c r="M110" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N110" s="14" t="s">
         <v>371</v>
       </c>
       <c r="T110" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="U110" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="111" s="1" customFormat="1" ht="16.5" spans="1:21">
@@ -7875,7 +7902,7 @@
         <v>188</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>190</v>
@@ -7887,7 +7914,7 @@
         <v>191</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>177</v>
@@ -7902,7 +7929,7 @@
         <v>180</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N111" s="14" t="s">
         <v>371</v>
@@ -8289,10 +8316,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G79" workbookViewId="0">
-      <selection activeCell="K88" sqref="K88"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B113" sqref="B2:B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8309,7 +8336,7 @@
         <v>170</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="C1" t="s">
         <v>95</v>
@@ -8376,8 +8403,8 @@
       <c r="A2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>415</v>
+      <c r="B2" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>188</v>
@@ -8410,30 +8437,30 @@
         <v>180</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>415</v>
+        <v>197</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>190</v>
@@ -8460,33 +8487,33 @@
         <v>180</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>415</v>
+        <v>201</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>173</v>
@@ -8510,33 +8537,33 @@
         <v>180</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A5" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>415</v>
+        <v>206</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>173</v>
@@ -8560,30 +8587,30 @@
         <v>180</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A6" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>415</v>
+        <v>210</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>190</v>
@@ -8604,36 +8631,36 @@
         <v>178</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>180</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>415</v>
+        <v>214</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>190</v>
@@ -8654,36 +8681,36 @@
         <v>178</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>180</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A8" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>415</v>
+        <v>218</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>190</v>
@@ -8710,30 +8737,30 @@
         <v>180</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V8" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>415</v>
+        <v>221</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>190</v>
@@ -8748,7 +8775,7 @@
         <v>88888</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>178</v>
@@ -8760,30 +8787,30 @@
         <v>180</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V9" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A10" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>415</v>
+        <v>225</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>190</v>
@@ -8798,7 +8825,7 @@
         <v>88888</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>178</v>
@@ -8810,30 +8837,30 @@
         <v>180</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="V10" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>415</v>
+        <v>229</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>190</v>
@@ -8848,7 +8875,7 @@
         <v>88888</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>178</v>
@@ -8860,30 +8887,30 @@
         <v>180</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="V11" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A12" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>415</v>
+        <v>233</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>190</v>
@@ -8910,30 +8937,30 @@
         <v>180</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V12" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A13" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>415</v>
+        <v>236</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>190</v>
@@ -8951,7 +8978,7 @@
         <v>177</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>179</v>
@@ -8960,30 +8987,30 @@
         <v>180</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="V13" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A14" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>415</v>
+        <v>240</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>190</v>
@@ -9010,30 +9037,30 @@
         <v>180</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V14" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A15" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>415</v>
+        <v>243</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>190</v>
@@ -9048,10 +9075,10 @@
         <v>88888</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>179</v>
@@ -9060,30 +9087,30 @@
         <v>180</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="V15" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A16" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>415</v>
+        <v>248</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>190</v>
@@ -9101,7 +9128,7 @@
         <v>177</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>179</v>
@@ -9110,30 +9137,30 @@
         <v>180</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V16" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A17" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>415</v>
+        <v>252</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>190</v>
@@ -9145,7 +9172,7 @@
         <v>191</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>177</v>
@@ -9160,30 +9187,30 @@
         <v>180</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V17" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A18" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>415</v>
+        <v>254</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>190</v>
@@ -9207,30 +9234,30 @@
         <v>179</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V18" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A19" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>415</v>
+        <v>257</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>190</v>
@@ -9257,30 +9284,30 @@
         <v>180</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V19" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A20" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>415</v>
-      </c>
       <c r="C20" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>190</v>
@@ -9292,7 +9319,7 @@
         <v>191</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>177</v>
@@ -9307,10 +9334,10 @@
         <v>180</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>13</v>
@@ -9323,8 +9350,8 @@
       <c r="A21" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>415</v>
+      <c r="B21" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>188</v>
@@ -9357,30 +9384,30 @@
         <v>180</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O21" s="14" t="s">
         <v>263</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V21" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A22" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>415</v>
+      <c r="B22" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>190</v>
@@ -9407,33 +9434,33 @@
         <v>180</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O22" s="14" t="s">
         <v>263</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V22" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A23" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>415</v>
+      <c r="B23" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>173</v>
@@ -9457,33 +9484,33 @@
         <v>180</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O23" s="14" t="s">
         <v>263</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="V23" s="14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A24" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>415</v>
+      <c r="B24" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>173</v>
@@ -9507,30 +9534,30 @@
         <v>180</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O24" s="14" t="s">
         <v>263</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="V24" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A25" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>415</v>
+      <c r="B25" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>190</v>
@@ -9551,36 +9578,36 @@
         <v>178</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>180</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O25" s="14" t="s">
         <v>263</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="V25" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A26" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>415</v>
+      <c r="B26" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>190</v>
@@ -9601,36 +9628,36 @@
         <v>178</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>180</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O26" s="14" t="s">
         <v>263</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V26" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A27" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>415</v>
+      <c r="B27" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>190</v>
@@ -9657,30 +9684,30 @@
         <v>180</v>
       </c>
       <c r="N27" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O27" s="14" t="s">
         <v>263</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V27" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A28" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>415</v>
+      <c r="B28" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>190</v>
@@ -9695,7 +9722,7 @@
         <v>88888</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>178</v>
@@ -9707,30 +9734,30 @@
         <v>180</v>
       </c>
       <c r="N28" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O28" s="14" t="s">
         <v>263</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V28" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A29" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>415</v>
+      <c r="B29" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>190</v>
@@ -9745,7 +9772,7 @@
         <v>88888</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>178</v>
@@ -9757,7 +9784,7 @@
         <v>180</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O29" s="14" t="s">
         <v>263</v>
@@ -9773,14 +9800,14 @@
       <c r="A30" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>415</v>
+      <c r="B30" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>190</v>
@@ -9795,7 +9822,7 @@
         <v>88888</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>178</v>
@@ -9807,30 +9834,30 @@
         <v>180</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O30" s="14" t="s">
         <v>263</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="V30" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A31" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>415</v>
+      <c r="B31" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>190</v>
@@ -9857,30 +9884,30 @@
         <v>180</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O31" s="14" t="s">
         <v>263</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V31" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A32" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>415</v>
+      <c r="B32" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>190</v>
@@ -9898,7 +9925,7 @@
         <v>177</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>179</v>
@@ -9907,30 +9934,30 @@
         <v>180</v>
       </c>
       <c r="N32" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O32" s="14" t="s">
         <v>263</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="V32" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A33" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>415</v>
+      <c r="B33" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>190</v>
@@ -9957,30 +9984,30 @@
         <v>180</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O33" s="14" t="s">
         <v>263</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V33" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A34" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>415</v>
+      <c r="B34" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>190</v>
@@ -9998,7 +10025,7 @@
         <v>177</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>179</v>
@@ -10007,7 +10034,7 @@
         <v>180</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O34" s="14" t="s">
         <v>263</v>
@@ -10023,14 +10050,14 @@
       <c r="A35" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>415</v>
+      <c r="B35" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>190</v>
@@ -10057,30 +10084,30 @@
         <v>180</v>
       </c>
       <c r="N35" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O35" s="14" t="s">
         <v>263</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V35" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A36" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>415</v>
+      <c r="B36" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>190</v>
@@ -10092,7 +10119,7 @@
         <v>191</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>177</v>
@@ -10107,30 +10134,30 @@
         <v>180</v>
       </c>
       <c r="N36" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O36" s="14" t="s">
         <v>263</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V36" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A37" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>415</v>
+      <c r="B37" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>190</v>
@@ -10157,30 +10184,30 @@
         <v>180</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O37" s="14" t="s">
         <v>263</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V37" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A38" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>415</v>
+      <c r="B38" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>190</v>
@@ -10207,30 +10234,30 @@
         <v>180</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O38" s="14" t="s">
         <v>263</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V38" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A39" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>415</v>
+        <v>418</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>190</v>
@@ -10242,7 +10269,7 @@
         <v>191</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>177</v>
@@ -10257,7 +10284,7 @@
         <v>180</v>
       </c>
       <c r="N39" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O39" s="14" t="s">
         <v>263</v>
@@ -10273,8 +10300,8 @@
       <c r="A40" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>415</v>
+      <c r="B40" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>188</v>
@@ -10313,24 +10340,24 @@
         <v>290</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V40" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A41" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>415</v>
+      <c r="B41" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>190</v>
@@ -10363,18 +10390,18 @@
         <v>290</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V41" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A42" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>415</v>
+      <c r="B42" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>188</v>
@@ -10423,17 +10450,17 @@
       <c r="A43" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>415</v>
+      <c r="B43" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>173</v>
@@ -10463,27 +10490,27 @@
         <v>290</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="V43" s="14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A44" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>415</v>
+      <c r="B44" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>173</v>
@@ -10513,24 +10540,24 @@
         <v>290</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="V44" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A45" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>415</v>
+      <c r="B45" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>299</v>
@@ -10573,14 +10600,14 @@
       <c r="A46" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>415</v>
+      <c r="B46" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>190</v>
@@ -10601,7 +10628,7 @@
         <v>178</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>180</v>
@@ -10613,24 +10640,24 @@
         <v>290</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="V46" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A47" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>415</v>
+      <c r="B47" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>190</v>
@@ -10651,7 +10678,7 @@
         <v>178</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>180</v>
@@ -10663,24 +10690,24 @@
         <v>290</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V47" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A48" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B48" s="15" t="s">
-        <v>415</v>
+      <c r="B48" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>190</v>
@@ -10713,24 +10740,24 @@
         <v>290</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V48" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A49" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B49" s="15" t="s">
-        <v>415</v>
+      <c r="B49" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>190</v>
@@ -10745,7 +10772,7 @@
         <v>88888</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>178</v>
@@ -10763,24 +10790,24 @@
         <v>290</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V49" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A50" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B50" s="15" t="s">
-        <v>415</v>
+      <c r="B50" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>190</v>
@@ -10795,7 +10822,7 @@
         <v>88888</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>178</v>
@@ -10823,14 +10850,14 @@
       <c r="A51" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B51" s="15" t="s">
-        <v>415</v>
+      <c r="B51" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>190</v>
@@ -10873,14 +10900,14 @@
       <c r="A52" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B52" s="15" t="s">
-        <v>415</v>
+      <c r="B52" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>190</v>
@@ -10913,24 +10940,24 @@
         <v>290</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V52" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A53" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B53" s="15" t="s">
-        <v>415</v>
+      <c r="B53" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>190</v>
@@ -10973,14 +11000,14 @@
       <c r="A54" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B54" s="15" t="s">
-        <v>415</v>
+      <c r="B54" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>190</v>
@@ -11013,24 +11040,24 @@
         <v>290</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V54" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A55" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B55" s="15" t="s">
-        <v>415</v>
+      <c r="B55" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>190</v>
@@ -11048,7 +11075,7 @@
         <v>177</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>179</v>
@@ -11073,14 +11100,14 @@
       <c r="A56" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B56" s="15" t="s">
-        <v>415</v>
+      <c r="B56" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>190</v>
@@ -11113,24 +11140,24 @@
         <v>290</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V56" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A57" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B57" s="15" t="s">
-        <v>415</v>
+      <c r="B57" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>190</v>
@@ -11142,7 +11169,7 @@
         <v>191</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>177</v>
@@ -11163,24 +11190,24 @@
         <v>290</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V57" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A58" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B58" s="15" t="s">
-        <v>415</v>
+      <c r="B58" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>190</v>
@@ -11213,24 +11240,24 @@
         <v>290</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V58" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A59" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B59" s="15" t="s">
-        <v>415</v>
+      <c r="B59" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>190</v>
@@ -11242,7 +11269,7 @@
         <v>191</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>177</v>
@@ -11263,24 +11290,24 @@
         <v>290</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V59" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A60" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>415</v>
+        <v>419</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>190</v>
@@ -11292,7 +11319,7 @@
         <v>191</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>177</v>
@@ -11323,8 +11350,8 @@
       <c r="A61" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B61" s="15" t="s">
-        <v>415</v>
+      <c r="B61" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>188</v>
@@ -11363,24 +11390,24 @@
         <v>331</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V61" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A62" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B62" s="15" t="s">
-        <v>415</v>
+      <c r="B62" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>190</v>
@@ -11413,27 +11440,27 @@
         <v>331</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V62" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A63" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B63" s="15" t="s">
-        <v>415</v>
+      <c r="B63" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>173</v>
@@ -11463,27 +11490,27 @@
         <v>331</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="V63" s="14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A64" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B64" s="15" t="s">
-        <v>415</v>
+      <c r="B64" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>173</v>
@@ -11513,24 +11540,24 @@
         <v>331</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="V64" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A65" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B65" s="15" t="s">
-        <v>415</v>
+      <c r="B65" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>190</v>
@@ -11551,7 +11578,7 @@
         <v>178</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>180</v>
@@ -11563,24 +11590,24 @@
         <v>331</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="V65" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A66" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B66" s="15" t="s">
-        <v>415</v>
+      <c r="B66" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>190</v>
@@ -11601,7 +11628,7 @@
         <v>178</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>180</v>
@@ -11613,24 +11640,24 @@
         <v>331</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V66" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A67" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B67" s="15" t="s">
-        <v>415</v>
+      <c r="B67" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>190</v>
@@ -11663,24 +11690,24 @@
         <v>331</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V67" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A68" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B68" s="15" t="s">
-        <v>415</v>
+      <c r="B68" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>190</v>
@@ -11695,7 +11722,7 @@
         <v>88888</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>178</v>
@@ -11713,24 +11740,24 @@
         <v>331</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V68" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A69" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B69" s="15" t="s">
-        <v>415</v>
+      <c r="B69" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>190</v>
@@ -11745,7 +11772,7 @@
         <v>88888</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>178</v>
@@ -11773,14 +11800,14 @@
       <c r="A70" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B70" s="15" t="s">
-        <v>415</v>
+      <c r="B70" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>190</v>
@@ -11795,7 +11822,7 @@
         <v>88888</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>178</v>
@@ -11813,24 +11840,24 @@
         <v>331</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="V70" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A71" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B71" s="15" t="s">
-        <v>415</v>
+      <c r="B71" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>190</v>
@@ -11863,24 +11890,24 @@
         <v>331</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V71" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A72" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B72" s="15" t="s">
-        <v>415</v>
+      <c r="B72" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>190</v>
@@ -11898,7 +11925,7 @@
         <v>177</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>179</v>
@@ -11913,24 +11940,24 @@
         <v>331</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="V72" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A73" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B73" s="15" t="s">
-        <v>415</v>
+      <c r="B73" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>190</v>
@@ -11963,24 +11990,24 @@
         <v>331</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V73" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A74" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B74" s="15" t="s">
-        <v>415</v>
+      <c r="B74" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>190</v>
@@ -11998,7 +12025,7 @@
         <v>177</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>179</v>
@@ -12023,14 +12050,14 @@
       <c r="A75" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B75" s="15" t="s">
-        <v>415</v>
+      <c r="B75" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>190</v>
@@ -12063,24 +12090,24 @@
         <v>331</v>
       </c>
       <c r="U75" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V75" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A76" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B76" s="15" t="s">
-        <v>415</v>
+      <c r="B76" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>190</v>
@@ -12092,7 +12119,7 @@
         <v>191</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>177</v>
@@ -12113,24 +12140,24 @@
         <v>331</v>
       </c>
       <c r="U76" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V76" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A77" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B77" s="15" t="s">
-        <v>415</v>
+      <c r="B77" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>190</v>
@@ -12163,24 +12190,24 @@
         <v>331</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V77" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A78" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B78" s="15" t="s">
-        <v>415</v>
+      <c r="B78" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>190</v>
@@ -12210,24 +12237,24 @@
         <v>331</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V78" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A79" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>415</v>
+        <v>420</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>190</v>
@@ -12239,7 +12266,7 @@
         <v>191</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>177</v>
@@ -12270,8 +12297,8 @@
       <c r="A80" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B80" s="15" t="s">
-        <v>415</v>
+      <c r="B80" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>188</v>
@@ -12310,24 +12337,24 @@
         <v>354</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V80" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A81" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B81" s="15" t="s">
-        <v>415</v>
+      <c r="B81" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>190</v>
@@ -12360,24 +12387,24 @@
         <v>354</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V81" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A82" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B82" s="15" t="s">
-        <v>415</v>
+      <c r="B82" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>190</v>
@@ -12398,7 +12425,7 @@
         <v>178</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>180</v>
@@ -12410,24 +12437,24 @@
         <v>354</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="V82" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A83" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B83" s="15" t="s">
-        <v>415</v>
+      <c r="B83" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>190</v>
@@ -12448,7 +12475,7 @@
         <v>178</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>180</v>
@@ -12460,24 +12487,24 @@
         <v>354</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="V83" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A84" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B84" s="15" t="s">
-        <v>415</v>
+      <c r="B84" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>190</v>
@@ -12510,24 +12537,24 @@
         <v>354</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V84" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A85" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B85" s="15" t="s">
-        <v>415</v>
+      <c r="B85" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>190</v>
@@ -12542,7 +12569,7 @@
         <v>88888</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>178</v>
@@ -12560,24 +12587,24 @@
         <v>354</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V85" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A86" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B86" s="15" t="s">
-        <v>415</v>
+      <c r="B86" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>190</v>
@@ -12592,7 +12619,7 @@
         <v>88888</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>178</v>
@@ -12610,24 +12637,24 @@
         <v>354</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V86" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A87" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B87" s="15" t="s">
-        <v>415</v>
+      <c r="B87" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>190</v>
@@ -12660,24 +12687,24 @@
         <v>354</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V87" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A88" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B88" s="15" t="s">
-        <v>415</v>
+      <c r="B88" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>190</v>
@@ -12710,24 +12737,24 @@
         <v>354</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V88" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A89" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B89" s="15" t="s">
-        <v>415</v>
+      <c r="B89" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>190</v>
@@ -12745,7 +12772,7 @@
         <v>177</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>179</v>
@@ -12770,14 +12797,14 @@
       <c r="A90" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B90" s="15" t="s">
-        <v>415</v>
+      <c r="B90" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>190</v>
@@ -12810,24 +12837,24 @@
         <v>354</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V90" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A91" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B91" s="15" t="s">
-        <v>415</v>
+      <c r="B91" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>190</v>
@@ -12839,7 +12866,7 @@
         <v>191</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>177</v>
@@ -12860,24 +12887,24 @@
         <v>354</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V91" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A92" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B92" s="15" t="s">
-        <v>415</v>
+      <c r="B92" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>190</v>
@@ -12910,24 +12937,24 @@
         <v>354</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V92" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A93" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B93" s="15" t="s">
-        <v>415</v>
+      <c r="B93" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>190</v>
@@ -12960,24 +12987,24 @@
         <v>354</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V93" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A94" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>190</v>
@@ -12989,7 +13016,7 @@
         <v>191</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>177</v>
@@ -13020,8 +13047,8 @@
       <c r="A95" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B95" s="15" t="s">
-        <v>415</v>
+      <c r="B95" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>188</v>
@@ -13054,30 +13081,30 @@
         <v>180</v>
       </c>
       <c r="N95" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O95" s="14" t="s">
         <v>371</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V95" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A96" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B96" s="15" t="s">
-        <v>415</v>
+      <c r="B96" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>190</v>
@@ -13104,30 +13131,30 @@
         <v>180</v>
       </c>
       <c r="N96" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O96" s="14" t="s">
         <v>371</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V96" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A97" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B97" s="15" t="s">
-        <v>415</v>
+      <c r="B97" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>190</v>
@@ -13148,36 +13175,36 @@
         <v>178</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>180</v>
       </c>
       <c r="N97" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O97" s="14" t="s">
         <v>371</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="V97" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A98" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B98" s="15" t="s">
-        <v>415</v>
+      <c r="B98" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>190</v>
@@ -13198,36 +13225,36 @@
         <v>178</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>180</v>
       </c>
       <c r="N98" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O98" s="14" t="s">
         <v>371</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="V98" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A99" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B99" s="15" t="s">
-        <v>415</v>
+      <c r="B99" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>190</v>
@@ -13254,30 +13281,30 @@
         <v>180</v>
       </c>
       <c r="N99" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O99" s="14" t="s">
         <v>371</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V99" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A100" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B100" s="15" t="s">
-        <v>415</v>
+      <c r="B100" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>190</v>
@@ -13292,7 +13319,7 @@
         <v>88888</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>178</v>
@@ -13304,30 +13331,30 @@
         <v>180</v>
       </c>
       <c r="N100" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O100" s="14" t="s">
         <v>371</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V100" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A101" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B101" s="15" t="s">
-        <v>415</v>
+      <c r="B101" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>190</v>
@@ -13342,7 +13369,7 @@
         <v>88888</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>178</v>
@@ -13354,30 +13381,30 @@
         <v>180</v>
       </c>
       <c r="N101" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O101" s="14" t="s">
         <v>371</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V101" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A102" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B102" s="15" t="s">
-        <v>415</v>
+      <c r="B102" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>190</v>
@@ -13404,30 +13431,30 @@
         <v>180</v>
       </c>
       <c r="N102" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O102" s="14" t="s">
         <v>371</v>
       </c>
       <c r="U102" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V102" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A103" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B103" s="15" t="s">
-        <v>415</v>
+      <c r="B103" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>190</v>
@@ -13454,30 +13481,30 @@
         <v>180</v>
       </c>
       <c r="N103" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O103" s="14" t="s">
         <v>371</v>
       </c>
       <c r="U103" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V103" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A104" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B104" s="15" t="s">
-        <v>415</v>
+      <c r="B104" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>190</v>
@@ -13495,7 +13522,7 @@
         <v>177</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>179</v>
@@ -13504,7 +13531,7 @@
         <v>180</v>
       </c>
       <c r="N104" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O104" s="14" t="s">
         <v>371</v>
@@ -13520,14 +13547,14 @@
       <c r="A105" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B105" s="15" t="s">
-        <v>415</v>
+      <c r="B105" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>190</v>
@@ -13554,30 +13581,30 @@
         <v>180</v>
       </c>
       <c r="N105" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O105" s="14" t="s">
         <v>371</v>
       </c>
       <c r="U105" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V105" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A106" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B106" s="15" t="s">
-        <v>415</v>
+      <c r="B106" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>190</v>
@@ -13589,7 +13616,7 @@
         <v>191</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>177</v>
@@ -13604,30 +13631,30 @@
         <v>180</v>
       </c>
       <c r="N106" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O106" s="14" t="s">
         <v>371</v>
       </c>
       <c r="U106" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V106" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A107" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B107" s="15" t="s">
-        <v>415</v>
+      <c r="B107" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>190</v>
@@ -13654,30 +13681,30 @@
         <v>180</v>
       </c>
       <c r="N107" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O107" s="14" t="s">
         <v>371</v>
       </c>
       <c r="U107" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V107" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A108" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B108" s="15" t="s">
-        <v>415</v>
+      <c r="B108" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>190</v>
@@ -13720,14 +13747,14 @@
       <c r="A109" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B109" s="15" t="s">
-        <v>415</v>
+      <c r="B109" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>190</v>
@@ -13760,24 +13787,24 @@
         <v>371</v>
       </c>
       <c r="U109" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V109" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A110" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B110" s="15" t="s">
-        <v>415</v>
+      <c r="B110" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>190</v>
@@ -13801,30 +13828,30 @@
         <v>179</v>
       </c>
       <c r="N110" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O110" s="14" t="s">
         <v>371</v>
       </c>
       <c r="U110" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V110" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="111" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A111" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>415</v>
+        <v>422</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>190</v>
@@ -13836,7 +13863,7 @@
         <v>191</v>
       </c>
       <c r="H111" s="14" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>177</v>
@@ -13851,7 +13878,7 @@
         <v>180</v>
       </c>
       <c r="N111" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O111" s="14" t="s">
         <v>371</v>
@@ -13860,6 +13887,165 @@
         <v>13</v>
       </c>
       <c r="V111" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" ht="16.5" spans="1:22">
+      <c r="A112" t="s">
+        <v>423</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H112" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N112" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="O112" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="P112" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="U112" t="s">
+        <v>426</v>
+      </c>
+      <c r="V112" s="12" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="113" ht="16.5" spans="1:22">
+      <c r="A113" t="s">
+        <v>428</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H113" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N113" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="O113" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="P113" t="s">
+        <v>429</v>
+      </c>
+      <c r="U113" t="s">
+        <v>426</v>
+      </c>
+      <c r="V113" s="12" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="114" ht="16.5" spans="1:22">
+      <c r="A114" t="s">
+        <v>430</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H114" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N114" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="O114" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="P114" t="s">
+        <v>431</v>
+      </c>
+      <c r="U114" t="s">
+        <v>13</v>
+      </c>
+      <c r="V114" s="12" t="s">
         <v>10</v>
       </c>
     </row>
